--- a/информатика/лаб. 4/лаб 4.xlsx
+++ b/информатика/лаб. 4/лаб 4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>P(ai)</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>H(A/B)</t>
+  </si>
+  <si>
+    <t>бит/симв</t>
   </si>
 </sst>
 </file>
@@ -526,21 +529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -586,8 +589,11 @@
         <f>SUM(I2:L5)</f>
         <v>3.3401555694340224</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>0.2</v>
       </c>
@@ -629,8 +635,11 @@
         <f>SUM(G2:G5)</f>
         <v>1.961443855909897</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>0.06</v>
       </c>
@@ -673,8 +682,11 @@
         <f>SUM(B7:E7)</f>
         <v>1.9656780552463373</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>0.02</v>
       </c>
@@ -712,7 +724,7 @@
         <v>0.35028670282511704</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,7 +749,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
@@ -760,13 +772,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -816,8 +828,11 @@
         <f>SUM(N9:N12)</f>
         <v>1.378711713524126</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <f>B3/$F3</f>
         <v>0.57142857142857151</v>
@@ -857,7 +872,7 @@
         <v>0.34482984761198798</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <f>B4/$F4</f>
         <v>0.2857142857142857</v>
@@ -898,7 +913,7 @@
         <v>0.31899969450716598</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <f>B5/$F5</f>
         <v>9.9999999999999992E-2</v>
@@ -940,7 +955,7 @@
         <v>0.33629926590573511</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -982,8 +997,11 @@
         <f>SUM(I20:L20)</f>
         <v>1.3744775141876859</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <f t="shared" ref="B15:E15" si="18">B3/B$6</f>
         <v>0.7142857142857143</v>
@@ -1015,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <f t="shared" ref="B16:E16" si="21">B4/B$6</f>
         <v>0.21428571428571425</v>
@@ -1136,21 +1154,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1200,8 +1218,11 @@
         <f>SUM(I2:L5)</f>
         <v>3.8704555219749763</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <f t="shared" ref="B3:E3" si="1">B10*$F3</f>
         <v>0.1173</v>
@@ -1248,8 +1269,11 @@
         <f>SUM(G2:G5)</f>
         <v>1.9707166054953598</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <f t="shared" ref="B4:E4" si="7">B11*$F4</f>
         <v>6.5000000000000002E-2</v>
@@ -1296,8 +1320,11 @@
         <f>SUM(B7:E7)</f>
         <v>1.9549088017643326</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="29">
         <f t="shared" ref="B5:E5" si="8">B12*$F5</f>
         <v>6.649999999999999E-2</v>
@@ -1338,7 +1365,7 @@
         <v>7.3584974965385672E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1390,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
@@ -1386,13 +1413,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1439,8 +1466,11 @@
         <f>SUM(N9:N12)</f>
         <v>1.8997389164796166</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>0.51</v>
       </c>
@@ -1478,7 +1508,7 @@
         <v>0.40651818463136286</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>0.26</v>
       </c>
@@ -1516,7 +1546,7 @@
         <v>0.49671719392470814</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>0.35</v>
       </c>
@@ -1554,7 +1584,7 @@
         <v>0.34421333838688478</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1597,8 +1627,11 @@
         <f>SUM(I20:L20)</f>
         <v>1.915546720210644</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <f t="shared" ref="B15:E15" si="22">B3/B$6</f>
         <v>0.32792843164663127</v>
@@ -1632,7 +1665,7 @@
         <v>0.49480266579042076</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <f t="shared" ref="B16:E16" si="27">B4/B$6</f>
         <v>0.1817165222253285</v>
@@ -1753,21 +1786,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1818,8 +1851,11 @@
         <f>SUM(I2:L5)</f>
         <v>3.8298794319151148</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <f t="shared" ref="B3:E3" si="1">B15*B$6</f>
         <v>6.6000000000000003E-2</v>
@@ -1867,8 +1903,11 @@
         <f>SUM(G2:G5)</f>
         <v>1.9569749197643962</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <f t="shared" ref="B4:E4" si="5">B16*B$6</f>
         <v>6.6000000000000003E-2</v>
@@ -1916,8 +1955,11 @@
         <f>SUM(B7:E7)</f>
         <v>1.9854752972273344</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="29">
         <f t="shared" ref="B5:E5" si="6">B17*B$6</f>
         <v>6.9000000000000006E-2</v>
@@ -1959,7 +2001,7 @@
         <v>0.27447595161191857</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +2022,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
@@ -2003,13 +2045,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2060,8 +2102,11 @@
         <f>SUM(N9:N12)</f>
         <v>1.8729045121507184</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <f t="shared" ref="B10:E10" si="9">B3/$F3</f>
         <v>0.23076923076923075</v>
@@ -2103,7 +2148,7 @@
         <v>0.54215731457298399</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <f t="shared" ref="B11:E11" si="13">B4/$F4</f>
         <v>0.40366972477064228</v>
@@ -2145,7 +2190,7 @@
         <v>0.29750152761142379</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <f t="shared" ref="B12:E12" si="14">B5/$F5</f>
         <v>0.30131004366812231</v>
@@ -2187,7 +2232,7 @@
         <v>0.44232367513286658</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2226,8 +2271,11 @@
         <f>SUM(I20:L20)</f>
         <v>1.8444041346877804</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>0.22</v>
       </c>
@@ -2257,7 +2305,7 @@
         <v>0.39711017748039695</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>0.22</v>
       </c>

--- a/информатика/лаб. 4/лаб 4.xlsx
+++ b/информатика/лаб. 4/лаб 4.xlsx
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +248,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +535,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +588,7 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="32">
         <f>SUM(I2:L5)</f>
         <v>3.3401555694340224</v>
       </c>
@@ -1157,7 +1160,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1217,7 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="32">
         <f>SUM(I2:L5)</f>
         <v>3.8704555219749763</v>
       </c>
@@ -1789,7 +1792,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1850,7 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="32">
         <f>SUM(I2:L5)</f>
         <v>3.8298794319151148</v>
       </c>

--- a/информатика/лаб. 4/лаб 4.xlsx
+++ b/информатика/лаб. 4/лаб 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="задание 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>P(ai)</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>бит/симв</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>дел I</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -535,98 +544,97 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>0.08</v>
       </c>
       <c r="E2" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>SUM(B2:E2)</f>
-        <v>0.24</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G2" s="22">
         <f>-F2*LOG(F2, 2)</f>
-        <v>0.49413448537285648</v>
+        <v>0.41054483912493095</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>-B2*LOG(B2, 2)</f>
+        <v>0.26855508874019846</v>
       </c>
       <c r="J2">
-        <f>-C2*LOG(C2, 2)</f>
-        <v>0.31265380694991712</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:L2" si="0">-D2*LOG(D2, 2)</f>
+        <f t="shared" ref="J2:L2" si="0">-D2*LOG(D2, 2)</f>
         <v>0.29150849518197802</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.26855508874019846</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="32">
         <f>SUM(I2:L5)</f>
-        <v>3.3401555694340224</v>
+        <v>3.0764879253063664</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C3" s="8">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F5" si="1">SUM(B3:E3)</f>
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G5" si="2">-F3*LOG(F3, 2)</f>
-        <v>0.53010061049041546</v>
+        <v>0.51002154565503921</v>
       </c>
       <c r="I3">
-        <f>-B3*LOG(B3, 2)</f>
-        <v>0.46438561897747244</v>
+        <f t="shared" ref="I3:I5" si="3">-B3*LOG(B3, 2)</f>
+        <v>0.38264414131237223</v>
       </c>
       <c r="J3">
-        <f>-C3*LOG(C3, 2)</f>
-        <v>0.41054483912493089</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f t="shared" ref="K3:K5" si="4">-D3*LOG(D3, 2)</f>
+        <v>0.39711017748039695</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -636,517 +644,529 @@
       </c>
       <c r="Q3">
         <f>SUM(G2:G5)</f>
-        <v>1.961443855909897</v>
+        <v>1.9543824930452427</v>
       </c>
       <c r="R3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>0.21000000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" si="2"/>
-        <v>0.47282314106915257</v>
+        <v>0.51002154565503921</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="3">-B4*LOG(B4, 2)</f>
-        <v>0.2435336213432141</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f t="shared" ref="J3:J5" si="5">-C4*LOG(C4, 2)</f>
+        <v>0.41054483912493089</v>
       </c>
       <c r="K4">
-        <f>-D4*LOG(D4, 2)</f>
-        <v>0.21609640474436814</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f>-E4*LOG(E4, 2)</f>
-        <v>0.33219280948873625</v>
+        <f t="shared" ref="L3:L5" si="6">-E4*LOG(E4, 2)</f>
+        <v>0.36706724268642821</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q4">
         <f>SUM(B7:E7)</f>
-        <v>1.9656780552463373</v>
+        <v>1.9231437889720058</v>
       </c>
       <c r="R4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C5" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="12">
         <v>0.04</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.11</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="2"/>
-        <v>0.46438561897747244</v>
+        <v>0.52379456261023327</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.11287712379549449</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>-C5*LOG(C5, 2)</f>
+        <f t="shared" si="5"/>
+        <v>0.35028670282511704</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.42301699036395596</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
         <v>0.18575424759098899</v>
       </c>
-      <c r="K5">
-        <f>-D5*LOG(D5, 2)</f>
-        <v>0.15176681067160708</v>
-      </c>
-      <c r="L5">
-        <f>-E5*LOG(E5, 2)</f>
-        <v>0.35028670282511704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E6" si="4">SUM(C2:C5)</f>
-        <v>0.27999999999999997</v>
+        <f t="shared" ref="C6:E6" si="7">SUM(C2:C5)</f>
+        <v>0.26</v>
       </c>
       <c r="D6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>0.38</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="7"/>
         <v>0.16</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
-        <v>0.51422035496079377</v>
+        <v>0.46438561897747244</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:E7" si="5">-C6*LOG(C6, 2)</f>
-        <v>0.51422035496079377</v>
+        <f t="shared" ref="C7:E7" si="8">-C6*LOG(C6, 2)</f>
+        <v>0.50528828262474446</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>0.53045289700583287</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="8"/>
         <v>0.42301699036395596</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="5"/>
-        <v>0.51422035496079377</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="13">
         <f>B2/$F2</f>
-        <v>0</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="C9" s="14">
-        <f t="shared" ref="C9:E9" si="6">C2/$F2</f>
-        <v>0.375</v>
+        <f t="shared" ref="C9:E9" si="9">C2/$F2</f>
+        <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="9"/>
+        <v>0.53333333333333321</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="6"/>
-        <v>0.29166666666666669</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f t="shared" ref="I9:L9" si="10">-B9*LOG(B9, 2)</f>
+        <v>0.51311664765709342</v>
       </c>
       <c r="J9">
-        <f>-C9*LOG(C9, 2)</f>
-        <v>0.53063906222956636</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:L9" si="7">-D9*LOG(D9, 2)</f>
-        <v>0.52832083357371873</v>
+        <f t="shared" ref="K9" si="11">-D9*LOG(D9, 2)</f>
+        <v>0.48367498432454326</v>
       </c>
       <c r="L9">
-        <f t="shared" si="7"/>
-        <v>0.51846887711020273</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f>SUM(I9:L9)</f>
-        <v>1.5774287729134877</v>
+        <v>0.99679163198163667</v>
       </c>
       <c r="N9">
         <f>F2*M9</f>
-        <v>0.37858290549923701</v>
+        <v>0.14951874479724553</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q9">
         <f>SUM(N9:N12)</f>
-        <v>1.378711713524126</v>
+        <v>1.1221054322611241</v>
       </c>
       <c r="R9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <f>B3/$F3</f>
-        <v>0.57142857142857151</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="C10" s="17">
-        <f t="shared" ref="C10:E12" si="8">C3/$F3</f>
-        <v>0.4285714285714286</v>
+        <f t="shared" ref="C10:E12" si="12">C3/$F3</f>
+        <v>0</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.51851851851851849</v>
       </c>
       <c r="E10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:J10" si="9">-B10*LOG(B10, 2)</f>
-        <v>0.46134566974720231</v>
+        <f t="shared" ref="I10:I12" si="13">-B10*LOG(B10, 2)</f>
+        <v>0.50769708119595902</v>
       </c>
       <c r="J10">
-        <f t="shared" si="9"/>
-        <v>0.52388246628704915</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <f t="shared" ref="K10:K12" si="14">-D10*LOG(D10, 2)</f>
+        <v>0.49131318968452231</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M12" si="10">SUM(I10:L10)</f>
-        <v>0.98522813603425141</v>
+        <f t="shared" ref="M10:M12" si="15">SUM(I10:L10)</f>
+        <v>0.99901027088048133</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N12" si="11">F3*M10</f>
-        <v>0.34482984761198798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N10:N12" si="16">F3*M10</f>
+        <v>0.26973277313772998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <f>B4/$F4</f>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C11" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.55555555555555547</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" si="8"/>
-        <v>0.23809523809523808</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
-        <f t="shared" si="8"/>
-        <v>0.47619047619047616</v>
+        <f t="shared" si="12"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I12" si="12">-B11*LOG(B11, 2)</f>
-        <v>0.51638712058788683</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f t="shared" ref="J10:J12" si="17">-C11*LOG(C11, 2)</f>
+        <v>0.47110939253052786</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K12" si="13">-D11*LOG(D11, 2)</f>
-        <v>0.49294983997414238</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L12" si="14">-E11*LOG(E11, 2)</f>
-        <v>0.50970920375780859</v>
+        <f t="shared" ref="L10:L12" si="18">-E11*LOG(E11, 2)</f>
+        <v>0.51996666730769436</v>
       </c>
       <c r="M11">
-        <f t="shared" si="10"/>
-        <v>1.5190461643198379</v>
+        <f t="shared" si="15"/>
+        <v>0.99107605983822222</v>
       </c>
       <c r="N11">
-        <f t="shared" si="11"/>
-        <v>0.31899969450716598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0.26759053615632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <f>B5/$F5</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" si="8"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="12"/>
+        <v>0.35483870967741937</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="8"/>
-        <v>0.15</v>
+        <f t="shared" si="12"/>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="8"/>
-        <v>0.54999999999999993</v>
+        <f t="shared" si="12"/>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I12">
-        <f t="shared" si="12"/>
-        <v>0.33219280948873625</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12" si="15">-C12*LOG(C12, 2)</f>
-        <v>0.46438561897747249</v>
+        <f t="shared" si="17"/>
+        <v>0.53040037449178568</v>
       </c>
       <c r="K12">
-        <f t="shared" si="13"/>
-        <v>0.41054483912493089</v>
+        <f t="shared" si="14"/>
+        <v>0.49248841826419365</v>
       </c>
       <c r="L12">
-        <f t="shared" si="14"/>
-        <v>0.47437306193753581</v>
+        <f t="shared" si="18"/>
+        <v>0.38118662069508064</v>
       </c>
       <c r="M12">
-        <f t="shared" si="10"/>
-        <v>1.6814963295286756</v>
+        <f t="shared" si="15"/>
+        <v>1.40407541345106</v>
       </c>
       <c r="N12">
-        <f t="shared" si="11"/>
-        <v>0.33629926590573511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0.43526337816982863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="13">
         <f>B2/B$6</f>
-        <v>0</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="16">C2/C$6</f>
-        <v>0.32142857142857145</v>
+        <f t="shared" ref="C14:E14" si="19">C2/C$6</f>
+        <v>0</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>0.21052631578947367</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="16"/>
-        <v>0.25</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <f t="shared" ref="I14" si="20">-B14*LOG(B14, 2)</f>
+        <v>0.53010061049041546</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:K14" si="17">-C14*LOG(C14, 2)</f>
-        <v>0.52631676019777229</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" ref="K14" si="21">-D14*LOG(D14, 2)</f>
+        <v>0.47324789756707064</v>
       </c>
       <c r="L14">
-        <f>-E14*LOG(E14, 2)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q14">
         <f>SUM(I20:L20)</f>
-        <v>1.3744775141876859</v>
+        <v>1.1533441363343611</v>
       </c>
       <c r="R14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
-        <f t="shared" ref="B15:E15" si="18">B3/B$6</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" ref="B15:E15" si="22">B3/B$6</f>
+        <v>0.65</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" si="18"/>
-        <v>0.5357142857142857</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.36842105263157898</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I17" si="19">-B15*LOG(B15, 2)</f>
-        <v>0.34673344797874411</v>
+        <f t="shared" ref="I15:I17" si="23">-B15*LOG(B15, 2)</f>
+        <v>0.40396744488507558</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J17" si="20">-C15*LOG(C15, 2)</f>
-        <v>0.48239160345486726</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <f t="shared" ref="K15:K17" si="24">-D15*LOG(D15, 2)</f>
+        <v>0.53073727051062469</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
-        <f t="shared" ref="B16:E16" si="21">B4/B$6</f>
-        <v>0.21428571428571425</v>
+        <f t="shared" ref="B16:E16" si="25">B4/B$6</f>
+        <v>0</v>
       </c>
       <c r="C16" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.57692307692307687</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="21"/>
-        <v>0.3125</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="21"/>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="25"/>
+        <v>0.75</v>
       </c>
       <c r="I16">
-        <f t="shared" si="19"/>
-        <v>0.47622694742923877</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <f t="shared" ref="J15:J17" si="26">-C16*LOG(C16, 2)</f>
+        <v>0.45781680146110021</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K17" si="22">-D16*LOG(D16, 2)</f>
-        <v>0.52439747034769935</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L17" si="23">-E16*LOG(E16, 2)</f>
-        <v>0.53050958113222912</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L15:L17" si="27">-E16*LOG(E16, 2)</f>
+        <v>0.31127812445913283</v>
+      </c>
+      <c r="P16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <f>Q15*(Q3+Q4-Q2)</f>
+        <v>144.18690420795875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <f>B5/B$6</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="20">
         <f>C5/C$6</f>
-        <v>0.14285714285714288</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="D17" s="20">
         <f>D5/D$6</f>
-        <v>0.1875</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="E17" s="21">
         <f>E5/E$6</f>
-        <v>0.39285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="I17">
-        <f t="shared" si="19"/>
-        <v>0.27195392300411458</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="20"/>
-        <v>0.40105070315108637</v>
+        <f t="shared" si="26"/>
+        <v>0.52504188825160547</v>
       </c>
       <c r="K17">
-        <f t="shared" si="22"/>
-        <v>0.45281953111478324</v>
+        <f t="shared" si="24"/>
+        <v>0.52544316355519394</v>
       </c>
       <c r="L17">
-        <f t="shared" si="23"/>
-        <v>0.52954129777226344</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17">
+        <f>Q15*Q14</f>
+        <v>207.601944540185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="I19">
         <f>SUM(I14:I17)</f>
-        <v>1.0949143184120975</v>
+        <v>0.93406805537549098</v>
       </c>
       <c r="J19">
         <f>SUM(J14:J17)</f>
-        <v>1.4097590668037259</v>
+        <v>0.98285868971270562</v>
       </c>
       <c r="K19">
         <f>SUM(K14:K17)</f>
-        <v>1.4772170014624826</v>
+        <v>1.5294283316328894</v>
       </c>
       <c r="L19">
         <f>SUM(L14:L17)</f>
-        <v>1.5600508789044927</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.81127812445913283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I20">
         <f>I19*B6</f>
-        <v>0.30657600915538735</v>
+        <v>0.1868136110750982</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:L20" si="24">J19*C6</f>
-        <v>0.39473253870504321</v>
+        <f t="shared" ref="J20:L20" si="28">J19*C6</f>
+        <v>0.25554325932530347</v>
       </c>
       <c r="K20">
-        <f t="shared" si="24"/>
-        <v>0.23635472023399723</v>
+        <f t="shared" si="28"/>
+        <v>0.58118276602049801</v>
       </c>
       <c r="L20">
-        <f t="shared" si="24"/>
-        <v>0.43681424609325797</v>
+        <f t="shared" si="28"/>
+        <v>0.12980449991346127</v>
       </c>
     </row>
   </sheetData>
@@ -1160,363 +1180,363 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="23">
         <f>B9*$F2</f>
-        <v>0.10890000000000001</v>
+        <v>0.1144</v>
       </c>
       <c r="C2" s="24">
         <f t="shared" ref="C2:E2" si="0">C9*$F2</f>
-        <v>7.2599999999999998E-2</v>
+        <v>0.12320000000000002</v>
       </c>
       <c r="D2" s="24">
         <f t="shared" si="0"/>
-        <v>7.2599999999999998E-2</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="E2" s="25">
         <f t="shared" si="0"/>
-        <v>7.5900000000000009E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="3">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="G2" s="22">
         <f>-F2*LOG(F2, 2)</f>
-        <v>0.52782248323736947</v>
+        <v>0.52114681130046814</v>
       </c>
       <c r="I2">
         <f>-B2*LOG(B2, 2)</f>
-        <v>0.34836283893666392</v>
+        <v>0.35782501529300931</v>
       </c>
       <c r="J2">
-        <f>-C2*LOG(C2, 2)</f>
-        <v>0.27471017017679855</v>
+        <f t="shared" ref="J2:L2" si="1">-C2*LOG(C2, 2)</f>
+        <v>0.37217806334688031</v>
       </c>
       <c r="K2">
-        <f>-D2*LOG(D2, 2)</f>
-        <v>0.27471017017679855</v>
+        <f t="shared" si="1"/>
+        <v>0.31748301244352539</v>
       </c>
       <c r="L2">
-        <f>-E2*LOG(E2, 2)</f>
-        <v>0.28232950348376934</v>
+        <f t="shared" si="1"/>
+        <v>0.35028670282511704</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="32">
         <f>SUM(I2:L5)</f>
-        <v>3.8704555219749763</v>
+        <v>3.8473610420258839</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <f t="shared" ref="B3:E3" si="1">B10*$F3</f>
-        <v>0.1173</v>
+        <f t="shared" ref="B3:E3" si="2">B10*$F3</f>
+        <v>5.4400000000000004E-2</v>
       </c>
       <c r="C3" s="27">
-        <f t="shared" si="1"/>
-        <v>3.2200000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="D3" s="27">
-        <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E3" s="28">
-        <f t="shared" si="1"/>
-        <v>4.6000000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="G3" s="22">
-        <f t="shared" ref="G3:G5" si="2">-F3*LOG(F3, 2)</f>
-        <v>0.48766767375507375</v>
+        <f t="shared" ref="G3:G5" si="3">-F3*LOG(F3, 2)</f>
+        <v>0.42301699036395596</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="3">-B3*LOG(B3, 2)</f>
-        <v>0.3626593520624064</v>
+        <f t="shared" ref="I3:I5" si="4">-B3*LOG(B3, 2)</f>
+        <v>0.22849357488347158</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="4">-C3*LOG(C3, 2)</f>
-        <v>0.15960881514620162</v>
+        <f t="shared" ref="J3:J5" si="5">-C3*LOG(C3, 2)</f>
+        <v>0.21494239703046369</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="5">-D3*LOG(D3, 2)</f>
-        <v>0.16757546406199517</v>
+        <f t="shared" ref="K3:K5" si="6">-D3*LOG(D3, 2)</f>
+        <v>0.15890509710918679</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="6">-E3*LOG(E3, 2)</f>
-        <v>0.20434222711583344</v>
+        <f t="shared" ref="L3:L5" si="7">-E3*LOG(E3, 2)</f>
+        <v>0.12913972281458236</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q3">
         <f>SUM(G2:G5)</f>
-        <v>1.9707166054953598</v>
+        <v>1.8700448212144922</v>
       </c>
       <c r="R3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <f t="shared" ref="B4:E4" si="7">B11*$F4</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" ref="B4:E4" si="8">B11*$F4</f>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="C4" s="27">
+        <f t="shared" si="8"/>
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" si="8"/>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="8"/>
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="3"/>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.27471017017679855</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.21781877152567009</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0.20494150622176271</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="7"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D4" s="27">
-        <f t="shared" si="7"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="E4" s="28">
-        <f t="shared" si="7"/>
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="22">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0.25632207065618612</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0.28027241956246546</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>0.22320578526728813</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="6"/>
-        <v>0.23691691843876841</v>
+        <v>0.21781877152567009</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q4">
         <f>SUM(B7:E7)</f>
-        <v>1.9549088017643326</v>
+        <v>1.9924677274938594</v>
       </c>
       <c r="R4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="29">
-        <f t="shared" ref="B5:E5" si="8">B12*$F5</f>
-        <v>6.649999999999999E-2</v>
+        <f t="shared" ref="B5:E5" si="9">B12*$F5</f>
+        <v>3.9599999999999996E-2</v>
       </c>
       <c r="C5" s="30">
-        <f t="shared" si="8"/>
-        <v>5.8900000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="D5" s="30">
-        <f t="shared" si="8"/>
-        <v>5.3200000000000004E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.3199999999999995E-2</v>
       </c>
       <c r="E5" s="31">
-        <f t="shared" si="8"/>
-        <v>1.14E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5799999999999995E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.45522644850291644</v>
+        <f t="shared" si="3"/>
+        <v>0.4453076138998342</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.26004837296919969</v>
+        <f t="shared" si="4"/>
+        <v>0.18447088807500564</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.24064116593184842</v>
+        <f t="shared" si="5"/>
+        <v>0.19020093247287514</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
-        <v>0.22516527302336745</v>
+        <f t="shared" si="6"/>
+        <v>0.19581803470307438</v>
       </c>
       <c r="L5">
-        <f t="shared" si="6"/>
-        <v>7.3584974965385672E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.23232838157879063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>0.35770000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E6" si="9">SUM(C2:C5)</f>
-        <v>0.23870000000000002</v>
+        <f t="shared" ref="C6:E6" si="10">SUM(C2:C5)</f>
+        <v>0.26480000000000004</v>
       </c>
       <c r="D6">
-        <f t="shared" si="9"/>
-        <v>0.21279999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.21379999999999999</v>
       </c>
       <c r="E6">
-        <f t="shared" si="9"/>
-        <v>0.1908</v>
+        <f t="shared" si="10"/>
+        <v>0.2404</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
-        <v>0.53053276221344592</v>
+        <v>0.51461158800796625</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:E7" si="10">-C6*LOG(C6, 2)</f>
-        <v>0.49332833844523355</v>
+        <f t="shared" ref="C7:E7" si="11">-C6*LOG(C6, 2)</f>
+        <v>0.50762821278214298</v>
       </c>
       <c r="D7">
-        <f t="shared" si="10"/>
-        <v>0.47506109209346975</v>
+        <f t="shared" si="11"/>
+        <v>0.4758474425030314</v>
       </c>
       <c r="E7">
-        <f t="shared" si="10"/>
-        <v>0.45598660901218335</v>
+        <f t="shared" si="11"/>
+        <v>0.49438048420071867</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="13">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="C9" s="14">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D9" s="14">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E9" s="15">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I9">
         <f>-B9*LOG(B9, 2)</f>
-        <v>0.52782248323736947</v>
+        <v>0.50528828262474446</v>
       </c>
       <c r="J9">
-        <f>-C9*LOG(C9, 2)</f>
-        <v>0.48057340565023404</v>
+        <f t="shared" ref="J9:L9" si="12">-C9*LOG(C9, 2)</f>
+        <v>0.51422035496079377</v>
       </c>
       <c r="K9">
-        <f>-D9*LOG(D9, 2)</f>
-        <v>0.48057340565023404</v>
+        <f t="shared" si="12"/>
+        <v>0.47282314106915252</v>
       </c>
       <c r="L9">
-        <f>-E9*LOG(E9, 2)</f>
-        <v>0.48766767375507375</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="M9">
         <f>SUM(I9:L9)</f>
-        <v>1.9766369682929112</v>
+        <v>1.9923317786546908</v>
       </c>
       <c r="N9">
         <f>F2*M9</f>
-        <v>0.65229019953666079</v>
+        <v>0.8766259826080639</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q9">
         <f>SUM(N9:N12)</f>
-        <v>1.8997389164796166</v>
+        <v>1.9773162208113915</v>
       </c>
       <c r="R9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="C10" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="D10" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="18">
         <v>0.15</v>
       </c>
-      <c r="E10" s="18">
-        <v>0.2</v>
-      </c>
       <c r="I10">
-        <f t="shared" ref="I10:I12" si="11">-B10*LOG(B10, 2)</f>
-        <v>0.49542973237964688</v>
+        <f t="shared" ref="I10:I12" si="13">-B10*LOG(B10, 2)</f>
+        <v>0.52917373849829097</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J12" si="12">-C10*LOG(C10, 2)</f>
-        <v>0.39711017748039695</v>
+        <f t="shared" ref="J10:J12" si="14">-C10*LOG(C10, 2)</f>
+        <v>0.52379456261023327</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K12" si="13">-D10*LOG(D10, 2)</f>
+        <f t="shared" ref="K10:K12" si="15">-D10*LOG(D10, 2)</f>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L12" si="16">-E10*LOG(E10, 2)</f>
         <v>0.41054483912493089</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L12" si="14">-E10*LOG(E10, 2)</f>
-        <v>0.46438561897747244</v>
-      </c>
       <c r="M10">
-        <f t="shared" ref="M10:M12" si="15">SUM(I10:L10)</f>
-        <v>1.7674703679624471</v>
+        <f t="shared" ref="M10:M12" si="17">SUM(I10:L10)</f>
+        <v>1.9278987592109276</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N12" si="16">F3*M10</f>
-        <v>0.40651818463136286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N10:N12" si="18">F3*M10</f>
+        <v>0.30846380147374841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="C11" s="17">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="D11" s="17">
         <v>0.21</v>
@@ -1525,261 +1545,281 @@
         <v>0.23</v>
       </c>
       <c r="I11">
-        <f t="shared" si="11"/>
-        <v>0.50528828262474446</v>
+        <f t="shared" si="13"/>
+        <v>0.52782248323736947</v>
       </c>
       <c r="J11">
-        <f t="shared" si="12"/>
-        <v>0.52108967824986185</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="13"/>
-        <v>0.47282314106915252</v>
-      </c>
-      <c r="L11">
         <f t="shared" si="14"/>
         <v>0.48766767375507375</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="15"/>
+        <v>0.47282314106915252</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="16"/>
+        <v>0.48766767375507375</v>
+      </c>
       <c r="M11">
         <f>SUM(I11:L11)</f>
-        <v>1.9868687756988326</v>
+        <v>1.9759809718166697</v>
       </c>
       <c r="N11">
+        <f t="shared" si="18"/>
+        <v>0.43471581379966734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="13"/>
+        <v>0.48057340565023404</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="14"/>
+        <v>0.48766767375507375</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="15"/>
+        <v>0.49413448537285648</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="16"/>
-        <v>0.49671719392470814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="11"/>
-        <v>0.53010061049041546</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="12"/>
         <v>0.52379456261023327</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="13"/>
-        <v>0.51422035496079377</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="14"/>
-        <v>0.2435336213432141</v>
-      </c>
       <c r="M12">
-        <f t="shared" si="15"/>
-        <v>1.8116491494046567</v>
+        <f t="shared" si="17"/>
+        <v>1.9861701273883976</v>
       </c>
       <c r="N12">
-        <f t="shared" si="16"/>
-        <v>0.34421333838688478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0.35751062292991154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="13">
         <f>B2/B$6</f>
-        <v>0.3044450656975119</v>
+        <v>0.40711743772241987</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="17">C2/C$6</f>
-        <v>0.30414746543778798</v>
+        <f t="shared" ref="C14:E14" si="19">C2/C$6</f>
+        <v>0.46525679758308158</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="17"/>
-        <v>0.34116541353383462</v>
+        <f t="shared" si="19"/>
+        <v>0.43217960710944808</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="17"/>
-        <v>0.39779874213836486</v>
+        <f t="shared" si="19"/>
+        <v>0.45757071547420963</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14" si="18">-B14*LOG(B14, 2)</f>
-        <v>0.52235045370396671</v>
+        <f t="shared" ref="I14" si="20">-B14*LOG(B14, 2)</f>
+        <v>0.52782086890014401</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14" si="19">-C14*LOG(C14, 2)</f>
-        <v>0.52226898370358388</v>
+        <f t="shared" ref="J14" si="21">-C14*LOG(C14, 2)</f>
+        <v>0.5135973818166063</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14" si="20">-D14*LOG(D14, 2)</f>
-        <v>0.52930336578428039</v>
+        <f t="shared" ref="K14" si="22">-D14*LOG(D14, 2)</f>
+        <v>0.52306572356655567</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14" si="21">-E14*LOG(E14, 2)</f>
-        <v>0.52902832278188916</v>
+        <f t="shared" ref="L14" si="23">-E14*LOG(E14, 2)</f>
+        <v>0.51610928017016633</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q14">
         <f>SUM(I20:L20)</f>
-        <v>1.915546720210644</v>
+        <v>1.8548933145320241</v>
       </c>
       <c r="R14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
-        <f t="shared" ref="B15:E15" si="22">B3/B$6</f>
-        <v>0.32792843164663127</v>
+        <f t="shared" ref="B15:E15" si="24">B3/B$6</f>
+        <v>0.19359430604982206</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" si="22"/>
-        <v>0.13489736070381234</v>
+        <f t="shared" si="24"/>
+        <v>0.18731117824773411</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="22"/>
-        <v>0.16212406015037595</v>
+        <f t="shared" si="24"/>
+        <v>0.14967259120673529</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="22"/>
-        <v>0.24109014675052415</v>
+        <f t="shared" si="24"/>
+        <v>9.9833610648918464E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I17" si="23">-B15*LOG(B15, 2)</f>
-        <v>0.52748832936146473</v>
+        <f t="shared" ref="I15:I17" si="25">-B15*LOG(B15, 2)</f>
+        <v>0.4586039203483005</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J17" si="24">-C15*LOG(C15, 2)</f>
-        <v>0.38986227201316526</v>
+        <f t="shared" ref="J15:J17" si="26">-C15*LOG(C15, 2)</f>
+        <v>0.45263579449565322</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:K16" si="25">-D15*LOG(D15, 2)</f>
-        <v>0.42554807797147653</v>
+        <f t="shared" ref="K15:K16" si="27">-D15*LOG(D15, 2)</f>
+        <v>0.41012056768316235</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L17" si="26">-E15*LOG(E15, 2)</f>
-        <v>0.49480266579042076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L15:L17" si="28">-E15*LOG(E15, 2)</f>
+        <v>0.33187992530143101</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
-        <f t="shared" ref="B16:E16" si="27">B4/B$6</f>
-        <v>0.1817165222253285</v>
+        <f t="shared" ref="B16:E16" si="29">B4/B$6</f>
+        <v>0.25836298932384338</v>
       </c>
       <c r="C16" s="17">
+        <f t="shared" si="29"/>
+        <v>0.19108761329305132</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="29"/>
+        <v>0.21608980355472404</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="29"/>
+        <v>0.21048252911813645</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="25"/>
+        <v>0.50446114575932466</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="26"/>
+        <v>0.45625871565299519</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="27"/>
-        <v>0.31420192710515288</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="27"/>
-        <v>0.24671052631578946</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="27"/>
-        <v>0.30136268343815514</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="23"/>
-        <v>0.44706598317070606</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="24"/>
-        <v>0.52479139056300794</v>
-      </c>
-      <c r="K16">
+        <v>0.47762266533800191</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="28"/>
+        <v>0.47321263254764517</v>
+      </c>
+      <c r="P16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <f>Q15*(Q3+Q4-Q2)</f>
+        <v>5.3030273388636084</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <f t="shared" ref="B17:E17" si="30">B5/B$6</f>
+        <v>0.14092526690391458</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="30"/>
+        <v>0.15634441087613291</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="30"/>
+        <v>0.20205799812909259</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="30"/>
+        <v>0.23211314475873543</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="25"/>
-        <v>0.49813540039828241</v>
-      </c>
-      <c r="L16">
+        <v>0.39839541880119456</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="26"/>
-        <v>0.52148621768863745</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
-        <f t="shared" ref="B17:E17" si="28">B5/B$6</f>
-        <v>0.18590998043052834</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="28"/>
-        <v>0.24675324675324672</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="28"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="E17" s="21">
-        <f t="shared" si="28"/>
-        <v>5.9748427672955975E-2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="23"/>
-        <v>0.451263733654861</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="24"/>
-        <v>0.49816001971136359</v>
+        <v>0.41856532704436078</v>
       </c>
       <c r="K17">
         <f>-D17*LOG(D17, 2)</f>
-        <v>0.5</v>
+        <v>0.46617985526690064</v>
       </c>
       <c r="L17">
-        <f t="shared" si="26"/>
-        <v>0.24287469621061203</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>0.48908557688691967</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17">
+        <f>Q15*Q14</f>
+        <v>649.21266008620842</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="I19">
         <f>SUM(I14:I17)</f>
-        <v>1.9481684998909985</v>
+        <v>1.8892813538089639</v>
       </c>
       <c r="J19">
         <f>SUM(J14:J17)</f>
-        <v>1.9350826659911207</v>
+        <v>1.8410572190096155</v>
       </c>
       <c r="K19">
         <f>SUM(K14:K17)</f>
-        <v>1.9529868441540392</v>
+        <v>1.8769888118546207</v>
       </c>
       <c r="L19">
         <f>SUM(L14:L17)</f>
-        <v>1.7881919024715596</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.8102874149061621</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I20">
         <f>I19*B6</f>
-        <v>0.69685987241101022</v>
+        <v>0.53088806042031889</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:L20" si="29">J19*C6</f>
-        <v>0.46190423237208056</v>
+        <f t="shared" ref="J20:L20" si="31">J19*C6</f>
+        <v>0.48751195159374627</v>
       </c>
       <c r="K20">
-        <f t="shared" si="29"/>
-        <v>0.41559560043597954</v>
+        <f t="shared" si="31"/>
+        <v>0.40130020797451788</v>
       </c>
       <c r="L20">
-        <f t="shared" si="29"/>
-        <v>0.34118701499157356</v>
+        <f t="shared" si="31"/>
+        <v>0.43519309454344135</v>
       </c>
     </row>
   </sheetData>
@@ -1792,18 +1832,18 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1858,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f t="shared" ref="B3:E3" si="1">B15*B$6</f>
         <v>6.6000000000000003E-2</v>
@@ -1910,7 +1950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
         <f t="shared" ref="B4:E4" si="5">B16*B$6</f>
         <v>6.6000000000000003E-2</v>
@@ -1962,7 +2002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="29">
         <f t="shared" ref="B5:E5" si="6">B17*B$6</f>
         <v>6.9000000000000006E-2</v>
@@ -2004,7 +2044,7 @@
         <v>0.27447595161191857</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2065,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <f>-B6*LOG(B6, 2)</f>
@@ -2048,13 +2088,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <f t="shared" ref="B10:E10" si="9">B3/$F3</f>
         <v>0.23076923076923075</v>
@@ -2151,7 +2191,7 @@
         <v>0.54215731457298399</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <f t="shared" ref="B11:E11" si="13">B4/$F4</f>
         <v>0.40366972477064228</v>
@@ -2193,7 +2233,7 @@
         <v>0.29750152761142379</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <f t="shared" ref="B12:E12" si="14">B5/$F5</f>
         <v>0.30131004366812231</v>
@@ -2235,7 +2275,7 @@
         <v>0.44232367513286658</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>0.22</v>
       </c>
@@ -2308,7 +2348,7 @@
         <v>0.39711017748039695</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>0.22</v>
       </c>
@@ -2338,7 +2378,7 @@
         <v>0.2435336213432141</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <v>0.23</v>
       </c>
@@ -2368,13 +2408,13 @@
         <v>0.5179038064476742</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2396,7 +2436,7 @@
         <v>1.6539773376509321</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I20">
         <f>I19*B6</f>
         <v>0.59299109048787335</v>
